--- a/Screeaner_ITM_PUT_CALENDAR/SCREENER_RESULT.xlsx
+++ b/Screeaner_ITM_PUT_CALENDAR/SCREENER_RESULT.xlsx
@@ -604,14 +604,14 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.284</v>
+        <v>1.169</v>
       </c>
       <c r="O2" t="n">
-        <v>0.944</v>
+        <v>0.785</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>(  2%/  8%).........NOW ON A BUY</t>
+          <t>(  4%/ 17%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -619,20 +619,12 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=AAPL.txt</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>225</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.6676965232398643</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.3923</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-200.501172125713</v>
-      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>0.2086318833600677</v>
+        <v>0.2086320651067925</v>
       </c>
     </row>
     <row r="3">
@@ -694,14 +686,14 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.644</v>
+        <v>1.849</v>
       </c>
       <c r="O3" t="n">
-        <v>0.835</v>
+        <v>1.087</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>(  2%/  7%).........NOW ON A SELL</t>
+          <t>(  1%/  4%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -714,7 +706,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>0.4570605348094266</v>
+        <v>0.4570605440384362</v>
       </c>
     </row>
     <row r="4">
@@ -776,14 +768,14 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.915</v>
+        <v>1.173</v>
       </c>
       <c r="O4" t="n">
-        <v>0.922</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28%/ 22%).........NOW ON A BUY</t>
+          <t xml:space="preserve"> 19%/ 16%).........NOW ON A BUY</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -791,18 +783,10 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=GOOGL.txt</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v>160</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.6649429225641368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="U4" t="n">
-        <v>-202.0511080252288</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>0.2373931228566379</v>
       </c>
@@ -866,14 +850,14 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.925</v>
+        <v>1.175</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9350000000000001</v>
+        <v>1.234</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>(  0%/  6%).........NOW ON A SELL</t>
+          <t>(  0%/  9%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -881,18 +865,10 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=GOOG.txt</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>160</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7056750292476276</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.3893</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-150.6569960807507</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>0.2430427469332619</v>
       </c>
@@ -956,14 +932,14 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.525</v>
+        <v>1.42</v>
       </c>
       <c r="O6" t="n">
-        <v>1.034</v>
+        <v>0.897</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(  1%/ 13%).........NOW ON A SELL</t>
+          <t>(  1%/ 15%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -971,18 +947,10 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=AMZN.txt</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v>185</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9328245853099624</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5563</v>
-      </c>
-      <c r="U6" t="n">
-        <v>17.19923291791687</v>
-      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
         <v>0.3284621214981063</v>
       </c>
@@ -1046,14 +1014,14 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.229</v>
+        <v>1.129</v>
       </c>
       <c r="O7" t="n">
-        <v>1.023</v>
+        <v>0.93</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>(  1%/  1%).........NOW ON A BUY ....CHANGED FROM: SELL</t>
+          <t>(  1%/  1%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1061,20 +1029,12 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=NVDA.txt</t>
         </is>
       </c>
-      <c r="R7" t="n">
-        <v>625</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.202666158054993</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="U7" t="n">
-        <v>957.868935595522</v>
-      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>0.5632175317378147</v>
+        <v>0.5632174795952936</v>
       </c>
     </row>
     <row r="8">
@@ -1136,14 +1096,14 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003</v>
+        <v>1.086</v>
       </c>
       <c r="O8" t="n">
-        <v>1.015</v>
+        <v>0.967</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>(  0%/  3%).........NOW ON A SELL</t>
+          <t>(  0%/  5%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1151,18 +1111,10 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=META.txt</t>
         </is>
       </c>
-      <c r="R8" t="n">
-        <v>415</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.9441851476247862</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.6307</v>
-      </c>
-      <c r="U8" t="n">
-        <v>361.2877720156241</v>
-      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
         <v>0.9745883291887573</v>
       </c>
@@ -1226,10 +1178,10 @@
         <v>-1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.887</v>
+        <v>1.03</v>
       </c>
       <c r="O9" t="n">
-        <v>0.975</v>
+        <v>1.035</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1308,14 +1260,14 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.434</v>
+        <v>1.521</v>
       </c>
       <c r="O10" t="n">
-        <v>1.044</v>
+        <v>1.028</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>( 10%/ 22%).........NOW ON A BUY ....CHANGED FROM: SELL</t>
+          <t>( 11%/ 29%).........NOW ON A BUY ....CHANGED FROM: SELL</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1323,18 +1275,10 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=TSLA.txt</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v>340</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.062587402447458</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.6943</v>
-      </c>
-      <c r="U10" t="n">
-        <v>807.4427019787095</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
         <v>0.1204139412596779</v>
       </c>
@@ -1398,14 +1342,14 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.058</v>
+        <v>0.994</v>
       </c>
       <c r="O11" t="n">
-        <v>0.834</v>
+        <v>0.792</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ( 12%/ 13%).........NOW ON A SELL</t>
+          <t xml:space="preserve"> ( 14%/ 18%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1413,20 +1357,12 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=LLY.txt</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>700</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.9140670395236877</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.5377000000000001</v>
-      </c>
-      <c r="U11" t="n">
-        <v>235.1011663682968</v>
-      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>0.4296730047837253</v>
+        <v>0.4296729036914629</v>
       </c>
     </row>
   </sheetData>

--- a/Screeaner_ITM_PUT_CALENDAR/SCREENER_RESULT.xlsx
+++ b/Screeaner_ITM_PUT_CALENDAR/SCREENER_RESULT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,11 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>CVAR</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Momentum</t>
         </is>
       </c>
@@ -604,14 +609,14 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.169</v>
+        <v>0.584</v>
       </c>
       <c r="O2" t="n">
-        <v>0.785</v>
+        <v>0.944</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>(  4%/ 17%).........NOW ON A SELL</t>
+          <t>(  9%/  5%).........NOW ON A BUY</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -619,12 +624,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=AAPL.txt</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>210</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8459962558187353</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.5013000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-354.7672033042844</v>
+      </c>
       <c r="V2" t="n">
-        <v>0.2086320651067925</v>
+        <v>-1124.920047785338</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.4552272173707072</v>
       </c>
     </row>
     <row r="3">
@@ -686,14 +702,14 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.849</v>
+        <v>1.275</v>
       </c>
       <c r="O3" t="n">
-        <v>1.087</v>
+        <v>0.9</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>(  1%/  4%).........NOW ON A SELL</t>
+          <t>(  2%/  4%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -705,8 +721,9 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>0.4570605440384362</v>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0.6610905896797461</v>
       </c>
     </row>
     <row r="4">
@@ -765,17 +782,17 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.173</v>
+        <v>1.799</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.167</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19%/ 16%).........NOW ON A BUY</t>
+          <t xml:space="preserve"> 24%/ 24%).........NOW ON A BUY</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -783,12 +800,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=GOOGL.txt</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>175</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.827661329224858</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-393.1075989307215</v>
+      </c>
       <c r="V4" t="n">
-        <v>0.2373931228566379</v>
+        <v>-1091.3140868463</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4325848644966134</v>
       </c>
     </row>
     <row r="5">
@@ -847,17 +875,17 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.175</v>
+        <v>1.86</v>
       </c>
       <c r="O5" t="n">
-        <v>1.234</v>
+        <v>1.193</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>(  0%/  9%).........NOW ON A SELL</t>
+          <t>(  2%/ 62%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -865,12 +893,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=GOOG.txt</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>175</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7250195985349789</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3847</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-483.1233619313485</v>
+      </c>
       <c r="V5" t="n">
-        <v>0.2430427469332619</v>
+        <v>-1380.266321900279</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.4349868639036421</v>
       </c>
     </row>
     <row r="6">
@@ -932,14 +971,14 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="O6" t="n">
-        <v>0.897</v>
+        <v>0.964</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(  1%/ 15%).........NOW ON A SELL</t>
+          <t>(  0%/  0%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -947,12 +986,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=AMZN.txt</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>215</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.295622448133263</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6443000000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-234.9259482625486</v>
+      </c>
       <c r="V6" t="n">
-        <v>0.3284621214981063</v>
+        <v>-1175.417673359095</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5407848997912427</v>
       </c>
     </row>
     <row r="7">
@@ -1014,14 +1064,14 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.129</v>
+        <v>1.763</v>
       </c>
       <c r="O7" t="n">
-        <v>0.93</v>
+        <v>0.827</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>(  1%/  1%).........NOW ON A SELL</t>
+          <t>(  2%/  7%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1029,12 +1079,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=NVDA.txt</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>1050</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.236391578652761</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6970000000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>459.3424821700659</v>
+      </c>
       <c r="V7" t="n">
-        <v>0.5632174795952936</v>
+        <v>-8492.517375314786</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.718563071927206</v>
       </c>
     </row>
     <row r="8">
@@ -1096,14 +1157,14 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.086</v>
+        <v>1.599</v>
       </c>
       <c r="O8" t="n">
-        <v>0.967</v>
+        <v>0.905</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>(  0%/  5%).........NOW ON A SELL</t>
+          <t>(  0%/  1%).........NOW ON A SELL</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1111,12 +1172,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=META.txt</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>610</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.259904267323109</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-372.6019969811123</v>
+      </c>
       <c r="V8" t="n">
-        <v>0.9745883291887573</v>
+        <v>-3606.946976236149</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.062859787088132</v>
       </c>
     </row>
     <row r="9">
@@ -1175,13 +1247,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.03</v>
+        <v>2.64</v>
       </c>
       <c r="O9" t="n">
-        <v>1.035</v>
+        <v>1.05</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1197,8 +1269,9 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>0.1935641235715017</v>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>0.3563855416437354</v>
       </c>
     </row>
     <row r="10">
@@ -1257,17 +1330,17 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.521</v>
+        <v>0.736</v>
       </c>
       <c r="O10" t="n">
-        <v>1.028</v>
+        <v>0.927</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>( 11%/ 29%).........NOW ON A BUY ....CHANGED FROM: SELL</t>
+          <t>( 43%/ 76%).........NOW ON A BUY</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1275,12 +1348,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=TSLA.txt</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>260</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.280809603934202</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.7023</v>
+      </c>
+      <c r="U10" t="n">
+        <v>18.70830819289093</v>
+      </c>
       <c r="V10" t="n">
-        <v>0.1204139412596779</v>
+        <v>-1776.985131218306</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.2751582620497837</v>
       </c>
     </row>
     <row r="11">
@@ -1342,14 +1426,14 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.994</v>
+        <v>1.876</v>
       </c>
       <c r="O11" t="n">
-        <v>0.792</v>
+        <v>0.975</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ( 14%/ 18%).........NOW ON A SELL</t>
+          <t xml:space="preserve"> (  0%/  0%).........NOW ON A BUY</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1357,12 +1441,23 @@
           <t>https://www.optionstrategist.com/fileserve.php?type=pc&amp;myFile=LLY.txt</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>940</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.176362813466792</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-1187.796760608337</v>
+      </c>
       <c r="V11" t="n">
-        <v>0.4296729036914629</v>
+        <v>-6066.930644761736</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5844879116339534</v>
       </c>
     </row>
   </sheetData>
